--- a/src/test/resources/testData/Data.xlsx
+++ b/src/test/resources/testData/Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\selenium\Salesforce\src\test\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E9A95-1E14-4192-86EF-59992F1D602E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,164 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>Parent Account</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Account Site</t>
+  </si>
+  <si>
+    <t>Ticker Symbol</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Annual Revenue</t>
+  </si>
+  <si>
+    <t>SIC Code</t>
+  </si>
+  <si>
+    <t>Billing Street</t>
+  </si>
+  <si>
+    <t>Shipping Street</t>
+  </si>
+  <si>
+    <t>Billing Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Shipping Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing State/Province</t>
+  </si>
+  <si>
+    <t>Shipping City</t>
+  </si>
+  <si>
+    <t>Shipping State/Province</t>
+  </si>
+  <si>
+    <t>Billing Country</t>
+  </si>
+  <si>
+    <t>Shipping Country</t>
+  </si>
+  <si>
+    <t>Customer Priority</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>SLA Expiration Date</t>
+  </si>
+  <si>
+    <t>SLA Serial Number</t>
+  </si>
+  <si>
+    <t>Number of Locations</t>
+  </si>
+  <si>
+    <t>Upsell Opportunity</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>new Account Name</t>
+  </si>
+  <si>
+    <t>Edge Communications</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>555-555-555</t>
+  </si>
+  <si>
+    <t>555-666-777</t>
+  </si>
+  <si>
+    <t>www.newAccountWebsite.com</t>
+  </si>
+  <si>
+    <t>new Account Site</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Ciudadela St.</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Test Description (Kamaraj Exercise!!)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +189,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,14 +226,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +546,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="21" max="22" width="18.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" customWidth="1"/>
+    <col min="26" max="27" width="18.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1"/>
+    <col min="29" max="30" width="18.5703125" customWidth="1"/>
+    <col min="31" max="31" width="18.42578125" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N2" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="3">
+        <v>11101</v>
+      </c>
+      <c r="S2" s="3">
+        <v>11101</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>44140</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{AF37DE88-0F64-43E5-9842-A4E07DEAFD01}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testData/Data.xlsx
+++ b/src/test/resources/testData/Data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\selenium\Salesforce\src\test\resources\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E9A95-1E14-4192-86EF-59992F1D602E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A594A98-CEB6-497D-992A-AE15399ED4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29070" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Account Name</t>
   </si>
@@ -175,6 +171,9 @@
   </si>
   <si>
     <t>Test Description (Kamaraj Exercise!!)</t>
+  </si>
+  <si>
+    <t>11/5/2020</t>
   </si>
 </sst>
 </file>
@@ -264,10 +263,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -549,11 +548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
@@ -765,8 +764,8 @@
       <c r="AA2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="5">
-        <v>44140</v>
+      <c r="AB2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AC2" s="3">
         <v>123456</v>

--- a/src/test/resources/testData/Data.xlsx
+++ b/src/test/resources/testData/Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A594A98-CEB6-497D-992A-AE15399ED4A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{DEB3E008-BFFF-41AC-AC85-B2493F950747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="29070" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="29100" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Account Name</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>11/5/2020</t>
+  </si>
+  <si>
+    <t>3ACC3</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +584,7 @@
     <col min="33" max="33" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,7 +685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -780,14 +783,116 @@
         <v>48</v>
       </c>
       <c r="AG2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N3" s="3">
+        <v>50000000</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" s="3">
+        <v>11101</v>
+      </c>
+      <c r="S3" s="3">
+        <v>11101</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>123456</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{AF37DE88-0F64-43E5-9842-A4E07DEAFD01}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{5C921C6D-442A-40D5-8B4F-42C7B929A59B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>